--- a/temp.xlsx
+++ b/temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\PycharmProjects\BMI\bank_ups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C934C-A9A4-4A83-AAF6-6453AF408AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD00019-0190-4FB1-9C79-C170AD23A3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>ردیف</t>
   </si>
@@ -71,21 +71,10 @@
     <t>میزان آمپر هر باطری</t>
   </si>
   <si>
-    <t>تعداد باطری
-نصب شده</t>
-  </si>
-  <si>
     <t>ولتاژ باطری</t>
   </si>
   <si>
     <t>برق خروجی</t>
-  </si>
-  <si>
-    <t>مدل  و برند 
-باطری</t>
-  </si>
-  <si>
-    <t>شماره تماس کارشناس  شعبه</t>
   </si>
   <si>
     <t>شماره سریال UPS</t>
@@ -103,17 +92,10 @@
     <t>وضعیت نصب باطری</t>
   </si>
   <si>
-    <t>تاریخ راه اندازی و نصب
-UPS</t>
-  </si>
-  <si>
     <t>کارشناس</t>
   </si>
   <si>
     <t>panasonic</t>
-  </si>
-  <si>
-    <t>اداره امور شعب</t>
   </si>
   <si>
     <t>کابینت</t>
@@ -146,8 +128,28 @@
     <t>تاریخ تولید باطری (فقط شمسی)</t>
   </si>
   <si>
-    <t>مدت زمان 
-شارژ دهی به دقیقه</t>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>مدت زمان شارژ دهی به دقیقه</t>
+  </si>
+  <si>
+    <t>تاریخ راه اندازی و نصب UPS</t>
+  </si>
+  <si>
+    <t>تعداد باطری نصب شده</t>
+  </si>
+  <si>
+    <t>شماره تماس کارشناس شعبه</t>
+  </si>
+  <si>
+    <t>مدل و برند باطری</t>
+  </si>
+  <si>
+    <t>ممتاز</t>
+  </si>
+  <si>
+    <t>اداره امور شعب</t>
   </si>
 </sst>
 </file>
@@ -195,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,9 +228,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table125" displayName="Table125" ref="A1:Z4" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:Z4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table125" displayName="Table125" ref="A1:Z2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:Z2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z179">
     <sortCondition ref="B1:B163"/>
   </sortState>
@@ -354,9 +353,9 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="مدل ups" dataDxfId="20"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="محل استفاده" dataDxfId="19"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="توان UPS(KVA )" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="تاریخ راه اندازی و نصب_x000a_UPS" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="تعداد باطری_x000a_نصب شده" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="مدل  و برند _x000a_باطری" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="تاریخ راه اندازی و نصب UPS" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="تعداد باطری نصب شده" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="مدل و برند باطری" dataDxfId="15"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="میزان آمپر هر باطری" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ولتاژ باطری" dataDxfId="13"/>
     <tableColumn id="26" xr3:uid="{D5CBB0C0-77D5-42EF-AB3F-7D4C00130998}" name="تاریخ تولید باطری (فقط شمسی)" dataDxfId="12">
@@ -366,10 +365,10 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="تاریخ آخرین نصب باطری" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="برق خروجی" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="وضعیت نصب باطری" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="مدت زمان _x000a_شارژ دهی به دقیقه" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="مدت زمان شارژ دهی به دقیقه" dataDxfId="7"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="شماره سریال UPS" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="میزان ارت شعبه" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="شماره تماس کارشناس  شعبه" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="شماره تماس کارشناس شعبه" dataDxfId="4"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ملکی - استیجاری" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="کد پستی" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="آدرس" dataDxfId="1"/>
@@ -679,10 +678,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB179"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,18 +694,17 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
     <col min="13" max="15" width="10.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" customWidth="1"/>
     <col min="20" max="20" width="13.33203125" customWidth="1"/>
     <col min="21" max="21" width="14.44140625" style="11" customWidth="1"/>
-    <col min="22" max="22" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.5546875" customWidth="1"/>
     <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="39.5546875" style="9" customWidth="1"/>
     <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -731,55 +729,55 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>7</v>
@@ -791,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA1" s="4"/>
     </row>
@@ -803,25 +801,31 @@
         <v>3700</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="1">
         <v>32113400</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1">
         <v>40</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" s="1">
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>65</v>
@@ -843,19 +847,19 @@
         <v>220</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S2" s="1">
         <v>45</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>8</v>
@@ -864,10 +868,10 @@
         <v>4163897618</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,7 +958,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -981,6 +985,8 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="1"/>
+      <c r="AA6"/>
+      <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -3522,7 +3528,6 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="6"/>
       <c r="W91" s="1"/>
@@ -3552,6 +3557,7 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="6"/>
       <c r="W92" s="1"/>
@@ -5808,8 +5814,6 @@
       <c r="X167" s="1"/>
       <c r="Y167" s="8"/>
       <c r="Z167" s="1"/>
-      <c r="AA167"/>
-      <c r="AB167" s="2"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
@@ -6112,7 +6116,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
+      <c r="U178" s="6"/>
       <c r="V178" s="6"/>
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
@@ -6147,34 +6151,6 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="12"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="8"/>
-      <c r="Z180" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
